--- a/biology/Zoologie/Charaxes_psaphon/Charaxes_psaphon.xlsx
+++ b/biology/Zoologie/Charaxes_psaphon/Charaxes_psaphon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases psaphon est une espèce d'insectes lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Charaxes.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes psaphon a été nommé par John Obadiah Westwood en 1847[1].
-Sous-espèces
-Charaxes psaphon psaphon ; présent au Sri Lanka.
-Charaxes psaphon imna Butler, 1870 ; présent en Inde[1].
-Noms vernaculaires
-Charaxes psaphon imna se nomme Indian Tawny Rajah ou Indian Plain Tawny Rajah en anglais[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes psaphon a été nommé par John Obadiah Westwood en 1847.
 </t>
         </is>
       </c>
@@ -544,16 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charaxes psaphon est un grand papillon au dessus marron et orange avec toute la partie basale orange et la partie distale marron avec une petite queue aux ailes postérieures.
-Le dessous est beige argenté et orange.
-Chenille
-La chenille est verte marquée d'une ligne jaune sur les flancs.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes psaphon psaphon ; présent au Sri Lanka.
+Charaxes psaphon imna Butler, 1870 ; présent en Inde.</t>
         </is>
       </c>
     </row>
@@ -578,13 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de la chenille sont des Meliaceae dont Aglaia roxburghiana[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes psaphon imna se nomme Indian Tawny Rajah ou Indian Plain Tawny Rajah en anglais,.
 </t>
         </is>
       </c>
@@ -610,15 +627,196 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes psaphon est un grand papillon au dessus marron et orange avec toute la partie basale orange et la partie distale marron avec une petite queue aux ailes postérieures.
+Le dessous est beige argenté et orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte marquée d'une ligne jaune sur les flancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Meliaceae dont Aglaia roxburghiana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Asie du sud-est, en Inde et au Sri Lanka[1].
-Biotope
-Il réside dans et à proximité des forêts[3].
-Protection
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du sud-est, en Inde et au Sri Lanka.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans et à proximité des forêts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_psaphon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Charaxes psaphon, sur Wikimedia CommonsCharaxes psaphon, sur Wikispecies
 </t>
